--- a/22222.xlsx
+++ b/22222.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oleksandrrohachov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oleksandrrohachov/Documents/GitHub/RohachovOleksandr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A4B5B2-FDA0-C647-BAD2-A21ECEB0FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B81DEE-C131-1A40-BDD3-39A3431309D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{CF9E765C-FE9F-E347-8953-4DCD9EEFF888}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CF9E765C-FE9F-E347-8953-4DCD9EEFF888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -410,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,19 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -472,21 +460,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9082A4D8-882E-1340-BD84-D35A9CBF1609}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,472 +975,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="238" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="238" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="10" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="238" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="10" t="s">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="238" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="10" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>17</v>
       </c>
     </row>
